--- a/biology/Zoologie/Daanosaurus/Daanosaurus.xlsx
+++ b/biology/Zoologie/Daanosaurus/Daanosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daanosaurus zhangi
 Daanosaurus (qui signifie « lézard de Da'an » d'après le district de Da'an à Zigong, Sichuan en Chine) était un genre de dinosaures sauropodes Brachiosauridae qui vivait au Jurassique supérieur (étage Oxfordien - Tithonien, environ 163-145 Ma). 
-L'espèce type de la formation de Shaximiao a été décrite en 2005 sous le nom de Daanosaurus zhangi[1].
+L'espèce type de la formation de Shaximiao a été décrite en 2005 sous le nom de Daanosaurus zhangi.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vivait dans ce qui est aujourd'hui la Chine (province du Sichuan) et ressemblait à Bellusaurus[2]. Lorsqu'il a été décrit, Daanosaurus a été placé dans les Bellusaurinae[3], une sous-famille de Brachiosauridae que Dong Zhiming avait créé en 1990 pour contenir Bellusaurus, ou les Klamelisauridae (maintenant fusionnés avec les Brachiosauridae), utilisés pour abriter Klamelisaurus et peut-être aussi Daanosaurus et Abrosaurus[2],[1]. Plus récemment, d'autres auteurs ont placé Daanosaurus dans les Eusauropoda, potentiellement les Macronaria[4],[5].
-La taille adulte est inconnue en raison du manque de restes fossiles. L'holotype (ZDM 0193), qui est le seul spécimen connu, était un juvénile[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vivait dans ce qui est aujourd'hui la Chine (province du Sichuan) et ressemblait à Bellusaurus. Lorsqu'il a été décrit, Daanosaurus a été placé dans les Bellusaurinae, une sous-famille de Brachiosauridae que Dong Zhiming avait créé en 1990 pour contenir Bellusaurus, ou les Klamelisauridae (maintenant fusionnés avec les Brachiosauridae), utilisés pour abriter Klamelisaurus et peut-être aussi Daanosaurus et Abrosaurus,. Plus récemment, d'autres auteurs ont placé Daanosaurus dans les Eusauropoda, potentiellement les Macronaria,.
+La taille adulte est inconnue en raison du manque de restes fossiles. L'holotype (ZDM 0193), qui est le seul spécimen connu, était un juvénile.
 </t>
         </is>
       </c>
